--- a/data/trans_dic/P39A3_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,53; 95,18</t>
+          <t>85,23; 94,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,8; 96,13</t>
+          <t>88,03; 96,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>88,7; 94,64</t>
+          <t>88,48; 94,57</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>88,9; 95,6</t>
+          <t>88,94; 95,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,41; 93,21</t>
+          <t>78,54; 93,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,83; 93,25</t>
+          <t>85,0; 93,29</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,83; 93,88</t>
+          <t>89,42; 94,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,27; 92,41</t>
+          <t>88,49; 92,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,33; 92,55</t>
+          <t>89,56; 92,44</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,13; 95,34</t>
+          <t>90,9; 95,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,2; 91,6</t>
+          <t>88,33; 91,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,06; 92,94</t>
+          <t>90,19; 92,97</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>88,68; 93,06</t>
+          <t>88,93; 93,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>90,52; 93,83</t>
+          <t>90,21; 93,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>90,22; 92,92</t>
+          <t>90,29; 93,07</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>87,4; 91,32</t>
+          <t>87,41; 91,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,6; 93,92</t>
+          <t>88,73; 94,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,76; 92,46</t>
+          <t>88,6; 92,35</t>
         </is>
       </c>
     </row>
@@ -879,12 +879,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>90,45; 92,55</t>
+          <t>90,27; 92,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>89,35; 91,78</t>
+          <t>89,24; 91,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">

--- a/data/trans_dic/P39A3_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,23; 94,82</t>
+          <t>85,53; 95,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>88,03; 96,03</t>
+          <t>87,8; 96,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>88,48; 94,57</t>
+          <t>88,7; 94,64</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>88,94; 95,52</t>
+          <t>88,9; 95,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>78,54; 93,03</t>
+          <t>79,41; 93,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,0; 93,29</t>
+          <t>84,83; 93,25</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,42; 94,04</t>
+          <t>88,83; 93,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,49; 92,54</t>
+          <t>88,27; 92,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,56; 92,44</t>
+          <t>89,33; 92,55</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,9; 95,05</t>
+          <t>91,13; 95,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,33; 91,78</t>
+          <t>88,2; 91,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,19; 92,97</t>
+          <t>90,06; 92,94</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>88,93; 93,41</t>
+          <t>88,68; 93,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>90,21; 93,65</t>
+          <t>90,52; 93,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>90,29; 93,07</t>
+          <t>90,22; 92,92</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>87,41; 91,59</t>
+          <t>87,4; 91,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,73; 94,07</t>
+          <t>88,6; 93,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,6; 92,35</t>
+          <t>88,76; 92,46</t>
         </is>
       </c>
     </row>
@@ -879,12 +879,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>90,27; 92,45</t>
+          <t>90,45; 92,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>89,24; 91,8</t>
+          <t>89,35; 91,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">

--- a/data/trans_dic/P39A3_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>91,14%</t>
+          <t>91,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>91,98%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,53; 95,18</t>
+          <t>85,11; 95,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,8; 96,13</t>
+          <t>87,91; 96,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>88,7; 94,64</t>
+          <t>88,47; 94,66</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,1%</t>
+          <t>78,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>84,98%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>88,9; 95,6</t>
+          <t>88,62; 95,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,41; 93,21</t>
+          <t>52,41; 92,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,83; 93,25</t>
+          <t>63,97; 92,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>91,79%</t>
+          <t>91,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>90,5%</t>
+          <t>90,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>91,01%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,83; 93,88</t>
+          <t>88,6; 93,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,27; 92,41</t>
+          <t>88,07; 92,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,33; 92,55</t>
+          <t>89,16; 92,5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>90,0%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>92,65%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,13; 95,34</t>
+          <t>92,15; 97,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,2; 91,6</t>
+          <t>88,05; 91,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,06; 92,94</t>
+          <t>90,81; 95,96</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>91,05%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>92,05%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>91,55%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>88,68; 93,06</t>
+          <t>88,49; 92,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>90,52; 93,83</t>
+          <t>90,38; 93,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>90,22; 92,92</t>
+          <t>90,06; 92,81</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>89,47%</t>
+          <t>90,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>90,14%</t>
+          <t>92,99%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>87,4; 91,32</t>
+          <t>87,7; 92,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,6; 93,92</t>
+          <t>91,12; 97,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,76; 92,46</t>
+          <t>90,43; 96,65</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>91,54%</t>
+          <t>88,03%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>86,9%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>91,11%</t>
+          <t>87,37%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>90,45; 92,55</t>
+          <t>84,4; 90,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>89,35; 91,78</t>
+          <t>83,96; 89,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>90,16; 91,83</t>
+          <t>85,29; 89,43</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>92,03%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>89,44%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>90,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>90,8; 93,68</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>83,01; 91,71</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>87,54; 92,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P39A3_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,11; 95,22</t>
+          <t>85,43; 94,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,91; 96,08</t>
+          <t>87,51; 95,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>88,47; 94,66</t>
+          <t>88,48; 94,67</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>88,62; 95,51</t>
+          <t>88,48; 95,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,41; 92,93</t>
+          <t>45,89; 92,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,97; 92,97</t>
+          <t>64,03; 92,93</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,6; 93,74</t>
+          <t>88,95; 93,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,07; 92,34</t>
+          <t>88,32; 92,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,16; 92,5</t>
+          <t>89,44; 92,47</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>92,15; 97,87</t>
+          <t>91,95; 98,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,05; 91,51</t>
+          <t>87,91; 91,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,81; 95,96</t>
+          <t>90,83; 95,91</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>88,49; 92,94</t>
+          <t>88,55; 93,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>90,38; 93,72</t>
+          <t>90,28; 93,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>90,06; 92,81</t>
+          <t>90,08; 92,94</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>87,7; 92,62</t>
+          <t>87,74; 92,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>91,12; 97,87</t>
+          <t>90,96; 98,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,43; 96,65</t>
+          <t>90,41; 96,63</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>84,4; 90,86</t>
+          <t>84,55; 91,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>83,96; 89,24</t>
+          <t>83,76; 89,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>85,29; 89,43</t>
+          <t>85,13; 89,25</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>90,8; 93,68</t>
+          <t>90,76; 93,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>83,01; 91,71</t>
+          <t>82,69; 91,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>87,54; 92,07</t>
+          <t>87,25; 92,12</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que estar con dolor o malestar en el pecho es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>329461</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>258201</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>587662</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>308251; 342432</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>243346; 266625</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>565337; 604883</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>364109</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>387021</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>751131</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>348207; 375840</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>225019; 454015</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>565960; 821351</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1195</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>475838</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>475151</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>950989</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>461993; 487260</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>464080; 484903</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>934493; 966189</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1558</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>815520</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>592970</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1408489</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>791291; 844338</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>580002; 604679</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1380889; 1458020</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1432</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>486031</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>484381</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>970412</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>472675; 496527</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>475055; 491810</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>954806; 985105</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>308557</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>547409</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>855966</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>299384; 316297</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>526888; 568974</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>832162; 889470</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>220859</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>305229</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>526088</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>212122; 228344</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>294183; 312662</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>512587; 537423</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2833</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>4452</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>7285</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>3000375</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>3050363</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>6050738</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2958826; 3054492</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2820047; 3129949</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>5820202; 6145157</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>